--- a/tables/data.xlsx
+++ b/tables/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/rsources-book-en/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A042A5-555E-FC48-94C4-E16D76DAC8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DAE815-FF08-0B48-9F3F-3730D3C9F075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25500" windowHeight="14160" xr2:uid="{6AE634BB-A28D-7647-A932-733E210509A0}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>Инфраструктура научно-исследовательских данных, платформа доступа исследователей к данным о государстве и обществе</t>
   </si>
   <si>
-    <t>наборы данных для книги Handbook of Small Data Sets, Hand et al, 1994</t>
-  </si>
-  <si>
     <t>https://github.com/rfordatascience/tidytuesday</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Administrative Boundaries and Climate Data Shiny- App</t>
+  </si>
+  <si>
+    <t>the data sets from the Handbook of Small Data Sets, Hand et al, 1994</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6040A9B3-C63D-3F4D-9025-70C55ECDF216}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -535,13 +535,13 @@
     </row>
     <row r="3" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -549,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -557,13 +557,13 @@
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -615,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
